--- a/Examples and Resources/model output template.xlsx
+++ b/Examples and Resources/model output template.xlsx
@@ -7,54 +7,24 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="model output template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>BITCOPT (ICSF) Projected Array output</t>
-  </si>
-  <si>
-    <t>simulated:</t>
-  </si>
-  <si>
     <t>Climate file:</t>
   </si>
   <si>
     <t>(climate)</t>
   </si>
   <si>
-    <t>Cassette orientation:</t>
-  </si>
-  <si>
-    <t>[azi tilt]</t>
-  </si>
-  <si>
-    <t>Cassette Length, Height:</t>
-  </si>
-  <si>
-    <t>[L h] (m2)</t>
-  </si>
-  <si>
-    <t>Cassette Area:</t>
-  </si>
-  <si>
-    <t>A (m2)</t>
-  </si>
-  <si>
-    <t>Array size [rows stacks]</t>
-  </si>
-  <si>
-    <t>[rows stacks]</t>
-  </si>
-  <si>
     <t>DNI</t>
   </si>
   <si>
@@ -73,30 +43,12 @@
     <t>Q_gen</t>
   </si>
   <si>
-    <t>T_inlet</t>
-  </si>
-  <si>
-    <t>T_outlet</t>
-  </si>
-  <si>
-    <t>Ex_gen</t>
-  </si>
-  <si>
-    <t>(T_inlet_0)</t>
-  </si>
-  <si>
     <t>(timestamp)</t>
   </si>
   <si>
     <t>#year_timestamp</t>
   </si>
   <si>
-    <t>Baseline T_HTF:</t>
-  </si>
-  <si>
-    <t>T indoors</t>
-  </si>
-  <si>
     <t>T_ind</t>
   </si>
   <si>
@@ -115,16 +67,136 @@
     <t>Chi_theta</t>
   </si>
   <si>
-    <t>T_outdoors (unless variable)</t>
-  </si>
-  <si>
-    <t>#____</t>
-  </si>
-  <si>
-    <t>_____</t>
-  </si>
-  <si>
-    <t>E_toCPVs</t>
+    <t>(°)</t>
+  </si>
+  <si>
+    <t>measured data date:</t>
+  </si>
+  <si>
+    <t>date of input data taken</t>
+  </si>
+  <si>
+    <t>optical efficiency:</t>
+  </si>
+  <si>
+    <t>eta_combined</t>
+  </si>
+  <si>
+    <t>eta_Egen</t>
+  </si>
+  <si>
+    <t>eta_Qgen</t>
+  </si>
+  <si>
+    <t>epsilon_Egen</t>
+  </si>
+  <si>
+    <t>epsilon_Qgen</t>
+  </si>
+  <si>
+    <t>epsilon_Combined</t>
+  </si>
+  <si>
+    <t>(azimuth)</t>
+  </si>
+  <si>
+    <t>(tilt)</t>
+  </si>
+  <si>
+    <t>(length)</t>
+  </si>
+  <si>
+    <t>Cassette Length (m):</t>
+  </si>
+  <si>
+    <t>simulated when:</t>
+  </si>
+  <si>
+    <t>(SHA)</t>
+  </si>
+  <si>
+    <t>Cassette Height (m):</t>
+  </si>
+  <si>
+    <t>(height)</t>
+  </si>
+  <si>
+    <t>Cassette Area (m2):</t>
+  </si>
+  <si>
+    <t>(area)</t>
+  </si>
+  <si>
+    <t>number of modules in stack:</t>
+  </si>
+  <si>
+    <t>(modules, rows)</t>
+  </si>
+  <si>
+    <t>number of stacks in array:</t>
+  </si>
+  <si>
+    <t>(stacks, columns)</t>
+  </si>
+  <si>
+    <t>BITCOPT (ICSF) simulated power generation output</t>
+  </si>
+  <si>
+    <t>model git repository SHA:</t>
+  </si>
+  <si>
+    <t>=====</t>
+  </si>
+  <si>
+    <t>#=====</t>
+  </si>
+  <si>
+    <t>(W/m2)</t>
+  </si>
+  <si>
+    <t>(W)</t>
+  </si>
+  <si>
+    <t>(°C)</t>
+  </si>
+  <si>
+    <t>(K/W)</t>
+  </si>
+  <si>
+    <t>(g/s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex_gen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_outlet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_inlet </t>
+  </si>
+  <si>
+    <t>EIPC</t>
+  </si>
+  <si>
+    <t>Trans_glazing</t>
+  </si>
+  <si>
+    <t>R_waterblock</t>
+  </si>
+  <si>
+    <t>branchFlow</t>
+  </si>
+  <si>
+    <t>Cassette azimuth (south = 0° | E = -90°)</t>
+  </si>
+  <si>
+    <t>Cassette tilt angle (vertical = 0° | horizontal = 90°)</t>
+  </si>
+  <si>
+    <t>flow is modeled from the lowest module in a stack to the highest. All stacks are parallel branches.</t>
+  </si>
+  <si>
+    <t>The modules are numbered in (row  column) format from the indoor vantage point. That is (looking out the window) the upper left module is (1 1) and the lower right module is (n_row n_column)</t>
   </si>
 </sst>
 </file>
@@ -166,9 +238,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,226 +563,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:CU19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="15.109375" style="1"/>
+    <col min="3" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="17" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="15.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="6"/>
+      <c r="BN17" s="6"/>
+      <c r="BO17" s="6"/>
+      <c r="BP17" s="6"/>
+      <c r="BQ17" s="6"/>
+      <c r="BR17" s="6"/>
+      <c r="BS17" s="6"/>
+      <c r="BT17" s="6"/>
+      <c r="BU17" s="6"/>
+      <c r="BV17" s="6"/>
+      <c r="BW17" s="6"/>
+      <c r="BX17" s="6"/>
+      <c r="BY17" s="6"/>
+      <c r="BZ17" s="6"/>
+      <c r="CA17" s="6"/>
+      <c r="CB17" s="6"/>
+      <c r="CC17" s="6"/>
+      <c r="CD17" s="6"/>
+      <c r="CE17" s="6"/>
+      <c r="CF17" s="6"/>
+      <c r="CG17" s="6"/>
+      <c r="CH17" s="6"/>
+      <c r="CI17" s="6"/>
+      <c r="CJ17" s="6"/>
+      <c r="CK17" s="6"/>
+      <c r="CL17" s="6"/>
+      <c r="CM17" s="6"/>
+      <c r="CN17" s="6"/>
+      <c r="CO17" s="6"/>
+      <c r="CP17" s="6"/>
+      <c r="CQ17" s="6"/>
+      <c r="CR17" s="6"/>
+      <c r="CS17" s="6"/>
+      <c r="CT17" s="6"/>
+      <c r="CU17" s="6"/>
+    </row>
+    <row r="18" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="P18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="Q18" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="R18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="7"/>
+      <c r="BV18" s="7"/>
+      <c r="BW18" s="7"/>
+      <c r="BX18" s="7"/>
+      <c r="BY18" s="7"/>
+      <c r="BZ18" s="7"/>
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7"/>
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+      <c r="CG18" s="7"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7"/>
+      <c r="CJ18" s="7"/>
+      <c r="CK18" s="7"/>
+      <c r="CL18" s="7"/>
+      <c r="CM18" s="7"/>
+      <c r="CN18" s="7"/>
+      <c r="CO18" s="7"/>
+      <c r="CP18" s="7"/>
+      <c r="CQ18" s="7"/>
+      <c r="CR18" s="7"/>
+      <c r="CS18" s="7"/>
+      <c r="CT18" s="7"/>
+      <c r="CU18" s="7"/>
+    </row>
+    <row r="19" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="P19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="7"/>
+      <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="7"/>
+      <c r="BY19" s="7"/>
+      <c r="BZ19" s="7"/>
+      <c r="CA19" s="7"/>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7"/>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="7"/>
+      <c r="CG19" s="7"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="7"/>
+      <c r="CJ19" s="7"/>
+      <c r="CK19" s="7"/>
+      <c r="CL19" s="7"/>
+      <c r="CM19" s="7"/>
+      <c r="CN19" s="7"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="7"/>
+      <c r="CQ19" s="7"/>
+      <c r="CR19" s="7"/>
+      <c r="CS19" s="7"/>
+      <c r="CT19" s="7"/>
+      <c r="CU19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
